--- a/data/towerBalancingSheet.xlsx
+++ b/data/towerBalancingSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School\01_Fall2024\20241203-2206_FinalProj\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E364446-6421-4475-A34D-48CFDAD6B11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD3B6C9-CF17-47F5-9595-FAD85A748A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{3AFB10D5-AD2B-4681-9218-161A8B915481}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3AFB10D5-AD2B-4681-9218-161A8B915481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -305,6 +305,11 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -332,11 +337,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,10 +1113,10 @@
                   <c:v>57.692307692307693</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>162.5</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>468.75</c:v>
+                  <c:v>1406.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2189,10 +2189,10 @@
                   <c:v>144.23076923076923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>446.875</c:v>
+                  <c:v>893.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1406.25</c:v>
+                  <c:v>4218.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3265,10 +3265,10 @@
                   <c:v>0.29892387405340776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32961460446247465</c:v>
+                  <c:v>0.65922920892494929</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37711182622687045</c:v>
+                  <c:v>1.1313354786806114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4341,10 +4341,10 @@
                   <c:v>0.74730968513351925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90644016227180524</c:v>
+                  <c:v>1.8128803245436105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1313354786806114</c:v>
+                  <c:v>3.3940064360418343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7358,19 +7358,19 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" topLeftCell="BL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G18" sqref="G18"/>
+      <pane xSplit="12" topLeftCell="CQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="37"/>
-    <col min="5" max="5" width="9.140625" style="41"/>
-    <col min="6" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="4" width="9.140625" style="28"/>
+    <col min="5" max="5" width="9.140625" style="32"/>
+    <col min="6" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -7406,10 +7406,10 @@
       <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="38"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -7447,10 +7447,10 @@
         <f>J2/C2</f>
         <v>1.96875</v>
       </c>
-      <c r="M2" s="38"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -7488,10 +7488,10 @@
         <f>J3/(C3+C2)</f>
         <v>1.0683424980361351</v>
       </c>
-      <c r="M3" s="38"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -7529,10 +7529,10 @@
         <f>J4/(C4+C3+C2)</f>
         <v>0.77479338842975209</v>
       </c>
-      <c r="M4" s="38"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -7570,10 +7570,10 @@
         <f>J5/(C5+C4+C3+C2)</f>
         <v>0.81397872802257432</v>
       </c>
-      <c r="M5" s="38"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -7611,10 +7611,10 @@
         <f>J6/(C6+C5+C4+C3+C2)</f>
         <v>1.1535234899328859</v>
       </c>
-      <c r="M6" s="38"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -7650,10 +7650,10 @@
       <c r="L7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="38"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="3">
         <v>0</v>
       </c>
@@ -7691,10 +7691,10 @@
         <f>J8/C8</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="M8" s="38"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -7732,10 +7732,10 @@
         <f>J9/(C9+C8)</f>
         <v>0.68979933110367897</v>
       </c>
-      <c r="M9" s="38"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -7773,10 +7773,10 @@
         <f>J10/(C10+C9+C8)</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="M10" s="38"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -7814,10 +7814,10 @@
         <f>J11/(C11+C10+C9+C8)</f>
         <v>0.64437635183850039</v>
       </c>
-      <c r="M11" s="38"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -7855,10 +7855,10 @@
         <f>J12/(C12+C11+C10+C9+C8)</f>
         <v>0.83849329205366363</v>
       </c>
-      <c r="M12" s="38"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -7894,10 +7894,10 @@
       <c r="L13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="38"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="5">
         <v>0</v>
       </c>
@@ -7935,10 +7935,10 @@
         <f>J14/C14</f>
         <v>1.7</v>
       </c>
-      <c r="M14" s="38"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="5">
         <v>1</v>
       </c>
@@ -7976,10 +7976,10 @@
         <f>J15/(C15+C14)</f>
         <v>0.75757575757575757</v>
       </c>
-      <c r="M15" s="38"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -8017,10 +8017,10 @@
         <f>J16/(C16+C15+C14)</f>
         <v>0.515625</v>
       </c>
-      <c r="M16" s="38"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -8058,10 +8058,10 @@
         <f>J17/(C17+C16+C15+C14)</f>
         <v>0.60344827586206895</v>
       </c>
-      <c r="M17" s="38"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="5">
         <v>4</v>
       </c>
@@ -8099,10 +8099,10 @@
         <f>J18/(C18+C17+C16+C15+C14)</f>
         <v>1.368421052631579</v>
       </c>
-      <c r="M18" s="38"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -8138,10 +8138,10 @@
       <c r="L19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="38"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="7">
         <v>0</v>
       </c>
@@ -8179,10 +8179,10 @@
         <f>J20/C20</f>
         <v>0.91666666666666652</v>
       </c>
-      <c r="M20" s="38"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="7">
         <v>1</v>
       </c>
@@ -8220,10 +8220,10 @@
         <f>J21/(C21+C20)</f>
         <v>0.43650793650793651</v>
       </c>
-      <c r="M21" s="38"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="7">
         <v>2</v>
       </c>
@@ -8261,10 +8261,10 @@
         <f>J22/(C22+C21+C20)</f>
         <v>0.48756218905472631</v>
       </c>
-      <c r="M22" s="38"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="7">
         <v>3</v>
       </c>
@@ -8302,10 +8302,10 @@
         <f>J23/(C23+C22+C21+C20)</f>
         <v>0.52083333333333337</v>
       </c>
-      <c r="M23" s="38"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="7">
         <v>4</v>
       </c>
@@ -8343,10 +8343,10 @@
         <f>J24/(C24+C23+C22+C21+C20)</f>
         <v>0.62703583061889245</v>
       </c>
-      <c r="M24" s="38"/>
+      <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="23" t="s">
@@ -8382,10 +8382,10 @@
       <c r="L25" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M25" s="38"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="9">
         <v>0</v>
       </c>
@@ -8423,10 +8423,10 @@
         <f>J26/C26</f>
         <v>0.88571428571428568</v>
       </c>
-      <c r="M26" s="38"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="9">
         <v>1</v>
       </c>
@@ -8464,10 +8464,10 @@
         <f>J27/(C27+C26)</f>
         <v>0.6</v>
       </c>
-      <c r="M27" s="38"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="9">
         <v>2</v>
       </c>
@@ -8505,10 +8505,10 @@
         <f>J28/(C28+C27+C26)</f>
         <v>0.45299145299145294</v>
       </c>
-      <c r="M28" s="38"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="9">
         <v>3</v>
       </c>
@@ -8546,10 +8546,10 @@
         <f>J29/(C29+C28+C27+C26)</f>
         <v>0.56888888888888889</v>
       </c>
-      <c r="M29" s="38"/>
+      <c r="M29" s="29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="9">
         <v>4</v>
       </c>
@@ -8587,10 +8587,10 @@
         <f>J30/(C30+C29+C28+C27+C26)</f>
         <v>0.81699346405228768</v>
       </c>
-      <c r="M30" s="38"/>
+      <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="24" t="s">
@@ -8626,10 +8626,10 @@
       <c r="L31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M31" s="38"/>
+      <c r="M31" s="29"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="11">
         <v>0</v>
       </c>
@@ -8667,10 +8667,10 @@
         <f>J32/C32</f>
         <v>1.925</v>
       </c>
-      <c r="M32" s="38"/>
+      <c r="M32" s="29"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="11">
         <v>1</v>
       </c>
@@ -8708,10 +8708,10 @@
         <f>J33/(C33+C32)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="M33" s="38"/>
+      <c r="M33" s="29"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="11">
         <v>2</v>
       </c>
@@ -8749,10 +8749,10 @@
         <f>J34/(C34+C33+C32)</f>
         <v>0.6071428571428571</v>
       </c>
-      <c r="M34" s="38"/>
+      <c r="M34" s="29"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="11">
         <v>3</v>
       </c>
@@ -8790,10 +8790,10 @@
         <f>J35/(C35+C34+C33+C32)</f>
         <v>0.58275058275058289</v>
       </c>
-      <c r="M35" s="38"/>
+      <c r="M35" s="29"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="11">
         <v>4</v>
       </c>
@@ -8831,10 +8831,10 @@
         <f>J36/(C36+C35+C34+C33+C32)</f>
         <v>0.84615384615384615</v>
       </c>
-      <c r="M36" s="38"/>
+      <c r="M36" s="29"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="25" t="s">
@@ -8870,10 +8870,10 @@
       <c r="L37" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M37" s="38"/>
+      <c r="M37" s="29"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="13">
         <v>0</v>
       </c>
@@ -8911,10 +8911,10 @@
         <f>J38/C38</f>
         <v>0.61250000000000004</v>
       </c>
-      <c r="M38" s="38"/>
+      <c r="M38" s="29"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="13">
         <v>1</v>
       </c>
@@ -8952,10 +8952,10 @@
         <f>J39/(C39+C38)</f>
         <v>0.36842105263157893</v>
       </c>
-      <c r="M39" s="38"/>
+      <c r="M39" s="29"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="13">
         <v>2</v>
       </c>
@@ -8993,10 +8993,10 @@
         <f>J40/(C40+C39+C38)</f>
         <v>0.3348214285714286</v>
       </c>
-      <c r="M40" s="38"/>
+      <c r="M40" s="29"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="13">
         <v>3</v>
       </c>
@@ -9034,10 +9034,10 @@
         <f>J41/(C41+C40+C39+C38)</f>
         <v>0.37037037037037035</v>
       </c>
-      <c r="M41" s="38"/>
+      <c r="M41" s="29"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="13">
         <v>4</v>
       </c>
@@ -9075,10 +9075,10 @@
         <f>J42/(C42+C41+C40+C39+C38)</f>
         <v>0.46509840098400984</v>
       </c>
-      <c r="M42" s="38"/>
+      <c r="M42" s="29"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="26" t="s">
@@ -9114,10 +9114,10 @@
       <c r="L43" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M43" s="38"/>
+      <c r="M43" s="29"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="15">
         <v>0</v>
       </c>
@@ -9155,10 +9155,10 @@
         <f>J44/C44</f>
         <v>1.9444444444444444</v>
       </c>
-      <c r="M44" s="38"/>
+      <c r="M44" s="29"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="15">
         <v>1</v>
       </c>
@@ -9196,10 +9196,10 @@
         <f>J45/(C45+C44)</f>
         <v>0.94537815126050428</v>
       </c>
-      <c r="M45" s="38"/>
+      <c r="M45" s="29"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="15">
         <v>2</v>
       </c>
@@ -9237,10 +9237,10 @@
         <f>J46/(C46+C45+C44)</f>
         <v>0.74730968513351925</v>
       </c>
-      <c r="M46" s="38"/>
+      <c r="M46" s="29"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="15">
         <v>3</v>
       </c>
@@ -9260,28 +9260,28 @@
         <v>23</v>
       </c>
       <c r="H47" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="16">
         <f t="shared" si="14"/>
-        <v>162.5</v>
+        <v>325</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="15"/>
-        <v>446.875</v>
+        <v>893.75</v>
       </c>
       <c r="K47" s="16">
         <f>I47/(C47+C46+C45+C44)</f>
-        <v>0.32961460446247465</v>
+        <v>0.65922920892494929</v>
       </c>
       <c r="L47" s="16">
         <f>J47/(C47+C46+C45+C44)</f>
-        <v>0.90644016227180524</v>
-      </c>
-      <c r="M47" s="38"/>
+        <v>1.8128803245436105</v>
+      </c>
+      <c r="M47" s="29"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="15">
         <v>4</v>
       </c>
@@ -9301,28 +9301,28 @@
         <v>23</v>
       </c>
       <c r="H48" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48" s="16">
         <f t="shared" si="14"/>
-        <v>468.75</v>
+        <v>1406.25</v>
       </c>
       <c r="J48" s="16">
         <f t="shared" si="15"/>
-        <v>1406.25</v>
+        <v>4218.75</v>
       </c>
       <c r="K48" s="16">
         <f>I48/(C48+C47+C46+C45+C44)</f>
-        <v>0.37711182622687045</v>
+        <v>1.1313354786806114</v>
       </c>
       <c r="L48" s="16">
         <f>J48/(C48+C47+C46+C45+C44)</f>
-        <v>1.1313354786806114</v>
-      </c>
-      <c r="M48" s="38"/>
+        <v>3.3940064360418343</v>
+      </c>
+      <c r="M48" s="29"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -9358,10 +9358,10 @@
       <c r="L49" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M49" s="38"/>
+      <c r="M49" s="29"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="17">
         <v>0</v>
       </c>
@@ -9399,10 +9399,10 @@
         <f>J50/C50</f>
         <v>0.7</v>
       </c>
-      <c r="M50" s="38"/>
+      <c r="M50" s="29"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="17">
         <v>1</v>
       </c>
@@ -9440,10 +9440,10 @@
         <f>J51/(C51+C50)</f>
         <v>0.36199095022624433</v>
       </c>
-      <c r="M51" s="38"/>
+      <c r="M51" s="29"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="17">
         <v>2</v>
       </c>
@@ -9481,10 +9481,10 @@
         <f>J52/(C52+C51+C50)</f>
         <v>0.31814611154752559</v>
       </c>
-      <c r="M52" s="38"/>
+      <c r="M52" s="29"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="17">
         <v>3</v>
       </c>
@@ -9522,10 +9522,10 @@
         <f>J53/(C53+C52+C51+C50)</f>
         <v>0.32432432432432429</v>
       </c>
-      <c r="M53" s="38"/>
+      <c r="M53" s="29"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="17">
         <v>4</v>
       </c>
@@ -9563,21 +9563,21 @@
         <f>J54/(C54+C53+C52+C51+C50)</f>
         <v>0.41743119266055045</v>
       </c>
-      <c r="M54" s="38"/>
+      <c r="M54" s="29"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
